--- a/Material-coord/softBV-coord_mix.xlsx
+++ b/Material-coord/softBV-coord_mix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\softBV_mix\GitHub\projects\Coord\Material-coord\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Github\Projects\Coord\Material-coord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FA7E60-E58F-4B2C-9442-1D31B21DE38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD128745-A418-4D89-9C9F-249E335FC387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -482,6 +482,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -822,16 +824,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I141" sqref="I141"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101:F101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,7 +853,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -868,13 +870,13 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -893,11 +895,11 @@
       <c r="F3">
         <v>4</v>
       </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -914,13 +916,13 @@
         <v>-1</v>
       </c>
       <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -937,13 +939,13 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -960,13 +962,13 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,11 +987,11 @@
       <c r="F7">
         <v>4</v>
       </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1006,13 +1008,13 @@
         <v>-2</v>
       </c>
       <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1029,13 +1031,13 @@
         <v>-1</v>
       </c>
       <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1052,13 +1054,13 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G10" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1075,13 +1077,13 @@
         <v>-2</v>
       </c>
       <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1100,11 +1102,11 @@
       <c r="F12">
         <v>3</v>
       </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1123,11 +1125,11 @@
       <c r="F13">
         <v>3</v>
       </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1144,13 +1146,13 @@
         <v>4</v>
       </c>
       <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G14" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1167,13 +1169,13 @@
         <v>-2</v>
       </c>
       <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1190,13 +1192,13 @@
         <v>4</v>
       </c>
       <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G16" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1213,13 +1215,13 @@
         <v>-2</v>
       </c>
       <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G17" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1238,11 +1240,11 @@
       <c r="F18">
         <v>4</v>
       </c>
-      <c r="G18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1261,11 +1263,11 @@
       <c r="F19">
         <v>4</v>
       </c>
-      <c r="G19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1282,13 +1284,13 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G20" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1307,11 +1309,11 @@
       <c r="F21">
         <v>4</v>
       </c>
-      <c r="G21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1328,13 +1330,13 @@
         <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1351,13 +1353,13 @@
         <v>-2</v>
       </c>
       <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1374,13 +1376,13 @@
         <v>-2</v>
       </c>
       <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G24" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1399,11 +1401,11 @@
       <c r="F25">
         <v>4</v>
       </c>
-      <c r="G25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1420,13 +1422,13 @@
         <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G26" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1445,11 +1447,11 @@
       <c r="F27">
         <v>3</v>
       </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1468,11 +1470,11 @@
       <c r="F28">
         <v>3</v>
       </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1491,11 +1493,11 @@
       <c r="F29">
         <v>3</v>
       </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1514,11 +1516,11 @@
       <c r="F30">
         <v>3</v>
       </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1537,11 +1539,11 @@
       <c r="F31">
         <v>3</v>
       </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1558,13 +1560,13 @@
         <v>2</v>
       </c>
       <c r="F32">
-        <v>6</v>
-      </c>
-      <c r="G32">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1581,13 +1583,13 @@
         <v>-2</v>
       </c>
       <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2">
+        <v>4</v>
+      </c>
+      <c r="G33" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1604,13 +1606,13 @@
         <v>-2</v>
       </c>
       <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34" s="2">
+        <v>3</v>
+      </c>
+      <c r="G34" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1627,13 +1629,13 @@
         <v>2</v>
       </c>
       <c r="F35">
-        <v>7</v>
-      </c>
-      <c r="G35">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1650,13 +1652,13 @@
         <v>3</v>
       </c>
       <c r="F36">
-        <v>5</v>
-      </c>
-      <c r="G36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G36" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1673,13 +1675,13 @@
         <v>3</v>
       </c>
       <c r="F37">
-        <v>5</v>
-      </c>
-      <c r="G37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G37" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1696,13 +1698,13 @@
         <v>-2</v>
       </c>
       <c r="F38">
-        <v>4</v>
-      </c>
-      <c r="G38">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1719,13 +1721,13 @@
         <v>-2</v>
       </c>
       <c r="F39">
-        <v>4</v>
-      </c>
-      <c r="G39">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G39" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1742,13 +1744,13 @@
         <v>-2</v>
       </c>
       <c r="F40">
-        <v>4</v>
-      </c>
-      <c r="G40">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1765,13 +1767,13 @@
         <v>-2</v>
       </c>
       <c r="F41">
-        <v>4</v>
-      </c>
-      <c r="G41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1788,13 +1790,13 @@
         <v>2</v>
       </c>
       <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G42" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1811,13 +1813,13 @@
         <v>2</v>
       </c>
       <c r="F43">
-        <v>5</v>
-      </c>
-      <c r="G43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G43" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1834,13 +1836,13 @@
         <v>-2</v>
       </c>
       <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G44" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1857,13 +1859,13 @@
         <v>-2</v>
       </c>
       <c r="F45">
-        <v>3</v>
-      </c>
-      <c r="G45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G45" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1880,13 +1882,13 @@
         <v>-2</v>
       </c>
       <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G46" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1905,11 +1907,11 @@
       <c r="F47">
         <v>4</v>
       </c>
-      <c r="G47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G47" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1926,13 +1928,13 @@
         <v>-1</v>
       </c>
       <c r="F48">
-        <v>4</v>
-      </c>
-      <c r="G48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G48" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1949,13 +1951,13 @@
         <v>-1</v>
       </c>
       <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G49" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1972,13 +1974,13 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>7</v>
-      </c>
-      <c r="G50">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G50" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1995,13 +1997,13 @@
         <v>2</v>
       </c>
       <c r="F51">
-        <v>5</v>
-      </c>
-      <c r="G51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G51" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2018,13 +2020,13 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>8</v>
-      </c>
-      <c r="G52">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G52" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2041,13 +2043,13 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>6</v>
-      </c>
-      <c r="G53">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G53" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2066,11 +2068,11 @@
       <c r="F54">
         <v>1</v>
       </c>
-      <c r="G54" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G54" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2087,13 +2089,13 @@
         <v>-2</v>
       </c>
       <c r="F55">
-        <v>2</v>
-      </c>
-      <c r="G55" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G55" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2110,13 +2112,13 @@
         <v>-2</v>
       </c>
       <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G56" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2135,11 +2137,11 @@
       <c r="F57">
         <v>4</v>
       </c>
-      <c r="G57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G57" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2156,13 +2158,13 @@
         <v>3</v>
       </c>
       <c r="F58">
-        <v>5</v>
-      </c>
-      <c r="G58">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G58" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2181,11 +2183,11 @@
       <c r="F59">
         <v>4</v>
       </c>
-      <c r="G59">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2204,11 +2206,11 @@
       <c r="F60">
         <v>4</v>
       </c>
-      <c r="G60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G60" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2225,13 +2227,13 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>5</v>
-      </c>
-      <c r="G61">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G61" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2248,13 +2250,13 @@
         <v>-2</v>
       </c>
       <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G62" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2273,11 +2275,11 @@
       <c r="F63">
         <v>4</v>
       </c>
-      <c r="G63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G63" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2294,13 +2296,13 @@
         <v>-2</v>
       </c>
       <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G64" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2317,13 +2319,13 @@
         <v>-2</v>
       </c>
       <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G65" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2340,13 +2342,13 @@
         <v>4</v>
       </c>
       <c r="F66">
-        <v>5</v>
-      </c>
-      <c r="G66">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G66" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2363,13 +2365,13 @@
         <v>2</v>
       </c>
       <c r="F67">
-        <v>5</v>
-      </c>
-      <c r="G67">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G67" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2386,13 +2388,13 @@
         <v>2</v>
       </c>
       <c r="F68">
-        <v>9</v>
-      </c>
-      <c r="G68">
         <v>12</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G68" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2409,13 +2411,13 @@
         <v>-2</v>
       </c>
       <c r="F69">
-        <v>4</v>
-      </c>
-      <c r="G69">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G69" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2432,13 +2434,13 @@
         <v>-2</v>
       </c>
       <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G70" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2455,13 +2457,13 @@
         <v>4</v>
       </c>
       <c r="F71">
-        <v>5</v>
-      </c>
-      <c r="G71">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G71" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2480,11 +2482,11 @@
       <c r="F72">
         <v>3</v>
       </c>
-      <c r="G72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G72" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2501,13 +2503,13 @@
         <v>2</v>
       </c>
       <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G73" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2524,13 +2526,13 @@
         <v>-2</v>
       </c>
       <c r="F74">
-        <v>2</v>
-      </c>
-      <c r="G74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G74" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2547,13 +2549,13 @@
         <v>-2</v>
       </c>
       <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G75" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2570,13 +2572,13 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G76" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2595,11 +2597,11 @@
       <c r="F77">
         <v>6</v>
       </c>
-      <c r="G77">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G77" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2616,13 +2618,13 @@
         <v>-2</v>
       </c>
       <c r="F78">
-        <v>2</v>
-      </c>
-      <c r="G78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G78" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2639,13 +2641,13 @@
         <v>2</v>
       </c>
       <c r="F79">
-        <v>5</v>
-      </c>
-      <c r="G79">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G79" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2662,13 +2664,13 @@
         <v>-2</v>
       </c>
       <c r="F80">
-        <v>3</v>
-      </c>
-      <c r="G80">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G80" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2685,13 +2687,13 @@
         <v>4</v>
       </c>
       <c r="F81">
-        <v>5</v>
-      </c>
-      <c r="G81">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G81" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2708,13 +2710,13 @@
         <v>-2</v>
       </c>
       <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G82" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2731,13 +2733,13 @@
         <v>2</v>
       </c>
       <c r="F83">
-        <v>10</v>
-      </c>
-      <c r="G83">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G83" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2754,13 +2756,13 @@
         <v>4</v>
       </c>
       <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G84" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2779,11 +2781,11 @@
       <c r="F85">
         <v>4</v>
       </c>
-      <c r="G85">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G85" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2802,11 +2804,11 @@
       <c r="F86">
         <v>4</v>
       </c>
-      <c r="G86">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G86" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2825,11 +2827,11 @@
       <c r="F87">
         <v>2</v>
       </c>
-      <c r="G87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G87" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2848,11 +2850,11 @@
       <c r="F88">
         <v>2</v>
       </c>
-      <c r="G88" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G88" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2869,13 +2871,13 @@
         <v>5</v>
       </c>
       <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G89" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2894,11 +2896,11 @@
       <c r="F90">
         <v>4</v>
       </c>
-      <c r="G90">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G90" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2917,11 +2919,11 @@
       <c r="F91">
         <v>2</v>
       </c>
-      <c r="G91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G91" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2931,20 +2933,20 @@
       <c r="C92" t="s">
         <v>55</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E92">
         <v>2</v>
       </c>
-      <c r="F92">
-        <v>7</v>
-      </c>
-      <c r="G92">
+      <c r="F92" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G92" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2961,13 +2963,13 @@
         <v>-1</v>
       </c>
       <c r="F93">
-        <v>3</v>
-      </c>
-      <c r="G93">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G93" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2984,13 +2986,13 @@
         <v>-1</v>
       </c>
       <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G94" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3007,13 +3009,13 @@
         <v>-1</v>
       </c>
       <c r="F95">
-        <v>3</v>
-      </c>
-      <c r="G95">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G95" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3030,13 +3032,13 @@
         <v>-1</v>
       </c>
       <c r="F96">
-        <v>3</v>
-      </c>
-      <c r="G96">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G96" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3053,13 +3055,13 @@
         <v>2</v>
       </c>
       <c r="F97">
-        <v>5</v>
-      </c>
-      <c r="G97">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G97" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3076,13 +3078,13 @@
         <v>2</v>
       </c>
       <c r="F98">
-        <v>7</v>
-      </c>
-      <c r="G98">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G98" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3099,13 +3101,13 @@
         <v>-2</v>
       </c>
       <c r="F99">
-        <v>2</v>
-      </c>
-      <c r="G99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G99" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3122,13 +3124,13 @@
         <v>6</v>
       </c>
       <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G100" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3138,20 +3140,20 @@
       <c r="C101" t="s">
         <v>75</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E101">
         <v>3</v>
       </c>
-      <c r="F101">
-        <v>7</v>
-      </c>
-      <c r="G101" s="2">
+      <c r="F101" s="2">
+        <v>10</v>
+      </c>
+      <c r="G101" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3168,13 +3170,13 @@
         <v>-2</v>
       </c>
       <c r="F102">
-        <v>2</v>
-      </c>
-      <c r="G102">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G102" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3191,13 +3193,13 @@
         <v>-2</v>
       </c>
       <c r="F103">
-        <v>2</v>
-      </c>
-      <c r="G103">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G103" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3214,13 +3216,13 @@
         <v>-2</v>
       </c>
       <c r="F104">
-        <v>1</v>
-      </c>
-      <c r="G104">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G104" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3237,13 +3239,13 @@
         <v>-2</v>
       </c>
       <c r="F105">
-        <v>2</v>
-      </c>
-      <c r="G105">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G105" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3262,11 +3264,11 @@
       <c r="F106">
         <v>4</v>
       </c>
-      <c r="G106">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G106" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3283,13 +3285,13 @@
         <v>3</v>
       </c>
       <c r="F107">
-        <v>5</v>
-      </c>
-      <c r="G107">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G107" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3308,11 +3310,11 @@
       <c r="F108">
         <v>2</v>
       </c>
-      <c r="G108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G108" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3329,13 +3331,13 @@
         <v>-2</v>
       </c>
       <c r="F109">
-        <v>1</v>
-      </c>
-      <c r="G109">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G109" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3354,11 +3356,11 @@
       <c r="F110">
         <v>4</v>
       </c>
-      <c r="G110">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G110" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3375,13 +3377,13 @@
         <v>2</v>
       </c>
       <c r="F111">
-        <v>5</v>
-      </c>
-      <c r="G111">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G111" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3400,11 +3402,11 @@
       <c r="F112">
         <v>3</v>
       </c>
-      <c r="G112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G112" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3421,13 +3423,13 @@
         <v>-2</v>
       </c>
       <c r="F113">
-        <v>2</v>
-      </c>
-      <c r="G113">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G113" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3444,13 +3446,13 @@
         <v>6</v>
       </c>
       <c r="F114">
-        <v>1</v>
-      </c>
-      <c r="G114">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G114" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3469,11 +3471,11 @@
       <c r="F115">
         <v>4</v>
       </c>
-      <c r="G115">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G115" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3492,11 +3494,11 @@
       <c r="F116">
         <v>2</v>
       </c>
-      <c r="G116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G116" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3515,11 +3517,11 @@
       <c r="F117">
         <v>2</v>
       </c>
-      <c r="G117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G117" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3538,11 +3540,11 @@
       <c r="F118">
         <v>4</v>
       </c>
-      <c r="G118">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G118" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3559,13 +3561,13 @@
         <v>2</v>
       </c>
       <c r="F119">
-        <v>1</v>
-      </c>
-      <c r="G119">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G119" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3582,13 +3584,13 @@
         <v>-2</v>
       </c>
       <c r="F120">
-        <v>2</v>
-      </c>
-      <c r="G120">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G120" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3605,13 +3607,13 @@
         <v>-2</v>
       </c>
       <c r="F121">
-        <v>1</v>
-      </c>
-      <c r="G121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G121" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3628,13 +3630,13 @@
         <v>6</v>
       </c>
       <c r="F122">
-        <v>5</v>
-      </c>
-      <c r="G122">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G122" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3651,13 +3653,13 @@
         <v>2</v>
       </c>
       <c r="F123">
-        <v>5</v>
-      </c>
-      <c r="G123">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G123" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3674,13 +3676,13 @@
         <v>2</v>
       </c>
       <c r="F124">
-        <v>5</v>
-      </c>
-      <c r="G124">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G124" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3697,13 +3699,13 @@
         <v>6</v>
       </c>
       <c r="F125">
-        <v>3</v>
-      </c>
-      <c r="G125">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G125" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3720,13 +3722,13 @@
         <v>6</v>
       </c>
       <c r="F126">
-        <v>3</v>
-      </c>
-      <c r="G126">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G126" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3743,13 +3745,13 @@
         <v>-2</v>
       </c>
       <c r="F127">
-        <v>3</v>
-      </c>
-      <c r="G127">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G127" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3766,13 +3768,13 @@
         <v>-2</v>
       </c>
       <c r="F128">
-        <v>1</v>
-      </c>
-      <c r="G128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G128" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3789,13 +3791,13 @@
         <v>-2</v>
       </c>
       <c r="F129">
-        <v>1</v>
-      </c>
-      <c r="G129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G129" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3812,13 +3814,13 @@
         <v>-2</v>
       </c>
       <c r="F130">
-        <v>2</v>
-      </c>
-      <c r="G130">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G130" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3835,13 +3837,13 @@
         <v>-2</v>
       </c>
       <c r="F131">
-        <v>1</v>
-      </c>
-      <c r="G131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G131" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3858,13 +3860,13 @@
         <v>5</v>
       </c>
       <c r="F132">
-        <v>5</v>
-      </c>
-      <c r="G132">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G132" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3881,13 +3883,13 @@
         <v>-2</v>
       </c>
       <c r="F133">
-        <v>2</v>
-      </c>
-      <c r="G133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G133" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3904,13 +3906,13 @@
         <v>-2</v>
       </c>
       <c r="F134">
-        <v>1</v>
-      </c>
-      <c r="G134">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G134" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3929,11 +3931,11 @@
       <c r="F135">
         <v>3</v>
       </c>
-      <c r="G135">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G135" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3952,11 +3954,11 @@
       <c r="F136">
         <v>2</v>
       </c>
-      <c r="G136" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G136" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3966,20 +3968,20 @@
       <c r="C137" t="s">
         <v>87</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E137">
         <v>3</v>
       </c>
       <c r="F137">
-        <v>4</v>
-      </c>
-      <c r="G137" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G137" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3996,13 +3998,13 @@
         <v>3</v>
       </c>
       <c r="F138">
-        <v>5</v>
-      </c>
-      <c r="G138">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G138" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4021,11 +4023,11 @@
       <c r="F139">
         <v>2</v>
       </c>
-      <c r="G139">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G139" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4042,13 +4044,13 @@
         <v>-1</v>
       </c>
       <c r="F140">
-        <v>3</v>
-      </c>
-      <c r="G140">
         <v>5</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G140" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4067,11 +4069,11 @@
       <c r="F141">
         <v>8</v>
       </c>
-      <c r="G141">
+      <c r="G141" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4088,13 +4090,13 @@
         <v>-2</v>
       </c>
       <c r="F142">
-        <v>1</v>
-      </c>
-      <c r="G142">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G142" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4111,13 +4113,13 @@
         <v>-2</v>
       </c>
       <c r="F143">
-        <v>2</v>
-      </c>
-      <c r="G143">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G143" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4136,11 +4138,11 @@
       <c r="F144">
         <v>2</v>
       </c>
-      <c r="G144">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G144" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4157,13 +4159,13 @@
         <v>6</v>
       </c>
       <c r="F145">
-        <v>1</v>
-      </c>
-      <c r="G145">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G145" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4180,13 +4182,13 @@
         <v>2</v>
       </c>
       <c r="F146">
-        <v>4</v>
-      </c>
-      <c r="G146">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G146" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4205,11 +4207,11 @@
       <c r="F147">
         <v>3</v>
       </c>
-      <c r="G147">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G147" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4228,11 +4230,11 @@
       <c r="F148">
         <v>4</v>
       </c>
-      <c r="G148">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G148" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4249,13 +4251,14 @@
         <v>4</v>
       </c>
       <c r="F149">
-        <v>1</v>
-      </c>
-      <c r="G149">
+        <v>8</v>
+      </c>
+      <c r="G149" s="4">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Material-coord/softBV-coord_mix.xlsx
+++ b/Material-coord/softBV-coord_mix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Github\Projects\Coord\Material-coord\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\softBV_mix\GitHub\projects\Coord\Material-coord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD128745-A418-4D89-9C9F-249E335FC387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9767A32F-24F1-451A-8A7B-B562F1C94F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>OS</t>
   </si>
   <si>
-    <t>Coordination</t>
-  </si>
-  <si>
     <t>Al2O3_corundum_9770</t>
   </si>
   <si>
@@ -397,7 +394,10 @@
     <t>Zr</t>
   </si>
   <si>
-    <t>MC_CN</t>
+    <t>Coordination by softBV</t>
+  </si>
+  <si>
+    <t>Coordination Number by material coord</t>
   </si>
 </sst>
 </file>
@@ -824,16 +824,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101:F101"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -847,24 +849,24 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -876,41 +878,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3">
+        <v>-2</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>91</v>
-      </c>
-      <c r="E3">
-        <v>-2</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>92</v>
       </c>
       <c r="E4">
         <v>-1</v>
@@ -922,18 +924,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -945,18 +947,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -968,18 +970,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -991,18 +993,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8">
         <v>-2</v>
@@ -1014,18 +1016,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9">
         <v>-1</v>
@@ -1037,18 +1039,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1060,18 +1062,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11">
         <v>-2</v>
@@ -1083,18 +1085,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12">
         <v>-2</v>
@@ -1106,18 +1108,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1129,18 +1131,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -1152,18 +1154,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15">
         <v>-2</v>
@@ -1175,18 +1177,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -1198,18 +1200,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17">
         <v>-2</v>
@@ -1221,18 +1223,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1244,18 +1246,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19">
         <v>-2</v>
@@ -1267,18 +1269,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1290,18 +1292,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1313,18 +1315,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1336,18 +1338,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E23">
         <v>-2</v>
@@ -1359,18 +1361,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24">
         <v>-2</v>
@@ -1382,18 +1384,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1405,18 +1407,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -1428,18 +1430,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E27">
         <v>-2</v>
@@ -1451,18 +1453,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E28">
         <v>-2</v>
@@ -1474,18 +1476,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E29">
         <v>-2</v>
@@ -1497,18 +1499,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E30">
         <v>-2</v>
@@ -1520,18 +1522,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -1543,18 +1545,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -1566,18 +1568,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E33">
         <v>-2</v>
@@ -1589,18 +1591,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E34">
         <v>-2</v>
@@ -1612,18 +1614,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -1635,18 +1637,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -1658,18 +1660,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E37">
         <v>3</v>
@@ -1681,18 +1683,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E38">
         <v>-2</v>
@@ -1704,18 +1706,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E39">
         <v>-2</v>
@@ -1727,18 +1729,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E40">
         <v>-2</v>
@@ -1750,18 +1752,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E41">
         <v>-2</v>
@@ -1773,18 +1775,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -1796,18 +1798,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -1819,18 +1821,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E44">
         <v>-2</v>
@@ -1842,18 +1844,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E45">
         <v>-2</v>
@@ -1865,18 +1867,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E46">
         <v>-2</v>
@@ -1888,18 +1890,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -1911,18 +1913,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E48">
         <v>-1</v>
@@ -1934,18 +1936,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E49">
         <v>-1</v>
@@ -1957,18 +1959,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -1980,18 +1982,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -2003,18 +2005,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2026,18 +2028,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2049,18 +2051,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E54">
         <v>-2</v>
@@ -2072,18 +2074,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E55">
         <v>-2</v>
@@ -2095,18 +2097,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-2</v>
@@ -2118,18 +2120,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E57">
         <v>6</v>
@@ -2141,18 +2143,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -2164,18 +2166,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -2187,18 +2189,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E60">
         <v>-2</v>
@@ -2210,18 +2212,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2233,18 +2235,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E62">
         <v>-2</v>
@@ -2256,18 +2258,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>6</v>
@@ -2279,18 +2281,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E64">
         <v>-2</v>
@@ -2302,18 +2304,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E65">
         <v>-2</v>
@@ -2325,18 +2327,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E66">
         <v>4</v>
@@ -2348,18 +2350,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -2371,18 +2373,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -2394,18 +2396,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E69">
         <v>-2</v>
@@ -2417,18 +2419,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E70">
         <v>-2</v>
@@ -2440,18 +2442,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E71">
         <v>4</v>
@@ -2463,18 +2465,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E72">
         <v>4</v>
@@ -2486,18 +2488,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -2509,18 +2511,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E74">
         <v>-2</v>
@@ -2532,18 +2534,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75">
         <v>-2</v>
@@ -2555,18 +2557,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E76">
         <v>4</v>
@@ -2578,18 +2580,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -2601,18 +2603,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D78" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E78">
         <v>-2</v>
@@ -2624,18 +2626,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -2647,18 +2649,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E80">
         <v>-2</v>
@@ -2670,18 +2672,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -2693,18 +2695,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E82">
         <v>-2</v>
@@ -2716,18 +2718,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -2739,18 +2741,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E84">
         <v>4</v>
@@ -2762,18 +2764,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E85">
         <v>3</v>
@@ -2785,18 +2787,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C86" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D86" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E86">
         <v>5</v>
@@ -2808,18 +2810,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E87">
         <v>-2</v>
@@ -2831,18 +2833,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E88">
         <v>-2</v>
@@ -2854,18 +2856,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C89" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D89" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E89">
         <v>5</v>
@@ -2877,18 +2879,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E90">
         <v>3</v>
@@ -2900,41 +2902,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" t="s">
+        <v>90</v>
+      </c>
+      <c r="E91">
+        <v>-2</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
         <v>29</v>
       </c>
-      <c r="C91" t="s">
-        <v>43</v>
-      </c>
-      <c r="D91" t="s">
-        <v>91</v>
-      </c>
-      <c r="E91">
-        <v>-2</v>
-      </c>
-      <c r="F91">
-        <v>2</v>
-      </c>
-      <c r="G91" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>30</v>
-      </c>
       <c r="C92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E92">
         <v>2</v>
@@ -2946,18 +2948,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C93" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D93" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E93">
         <v>-1</v>
@@ -2969,18 +2971,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C94" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E94">
         <v>-1</v>
@@ -2992,18 +2994,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C95" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E95">
         <v>-1</v>
@@ -3015,18 +3017,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C96" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E96">
         <v>-1</v>
@@ -3038,18 +3040,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C97" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E97">
         <v>2</v>
@@ -3061,18 +3063,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C98" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E98">
         <v>2</v>
@@ -3084,18 +3086,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D99" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E99">
         <v>-2</v>
@@ -3107,18 +3109,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C100" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D100" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E100">
         <v>6</v>
@@ -3130,18 +3132,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C101" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E101">
         <v>3</v>
@@ -3153,18 +3155,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D102" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E102">
         <v>-2</v>
@@ -3176,18 +3178,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D103" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E103">
         <v>-2</v>
@@ -3199,18 +3201,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C104" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D104" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E104">
         <v>-2</v>
@@ -3222,18 +3224,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C105" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D105" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E105">
         <v>-2</v>
@@ -3245,18 +3247,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D106" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E106">
         <v>5</v>
@@ -3268,18 +3270,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C107" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D107" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E107">
         <v>3</v>
@@ -3291,18 +3293,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D108" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E108">
         <v>-2</v>
@@ -3314,18 +3316,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C109" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D109" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E109">
         <v>-2</v>
@@ -3337,18 +3339,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C110" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D110" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E110">
         <v>5</v>
@@ -3360,18 +3362,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D111" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E111">
         <v>2</v>
@@ -3383,18 +3385,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D112" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E112">
         <v>-2</v>
@@ -3406,18 +3408,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C113" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D113" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E113">
         <v>-2</v>
@@ -3429,18 +3431,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C114" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D114" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E114">
         <v>6</v>
@@ -3452,18 +3454,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C115" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E115">
         <v>3</v>
@@ -3475,18 +3477,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D116" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E116">
         <v>-2</v>
@@ -3498,18 +3500,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D117" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E117">
         <v>-2</v>
@@ -3521,18 +3523,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C118" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D118" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E118">
         <v>5</v>
@@ -3544,18 +3546,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C119" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D119" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E119">
         <v>2</v>
@@ -3567,18 +3569,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D120" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E120">
         <v>-2</v>
@@ -3590,18 +3592,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C121" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D121" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E121">
         <v>-2</v>
@@ -3613,18 +3615,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C122" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D122" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E122">
         <v>6</v>
@@ -3636,18 +3638,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C123" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D123" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E123">
         <v>2</v>
@@ -3659,18 +3661,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C124" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D124" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E124">
         <v>2</v>
@@ -3682,18 +3684,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C125" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D125" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E125">
         <v>6</v>
@@ -3705,18 +3707,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C126" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D126" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E126">
         <v>6</v>
@@ -3728,18 +3730,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D127" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E127">
         <v>-2</v>
@@ -3751,18 +3753,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D128" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E128">
         <v>-2</v>
@@ -3774,18 +3776,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C129" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D129" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E129">
         <v>-2</v>
@@ -3797,18 +3799,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C130" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D130" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E130">
         <v>-2</v>
@@ -3820,18 +3822,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C131" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D131" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E131">
         <v>-2</v>
@@ -3843,18 +3845,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C132" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D132" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E132">
         <v>5</v>
@@ -3866,18 +3868,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D133" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E133">
         <v>-2</v>
@@ -3889,18 +3891,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D134" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E134">
         <v>-2</v>
@@ -3912,18 +3914,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C135" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D135" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E135">
         <v>-2</v>
@@ -3935,18 +3937,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C136" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D136" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E136">
         <v>-2</v>
@@ -3958,18 +3960,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C137" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E137">
         <v>3</v>
@@ -3981,18 +3983,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D138" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E138">
         <v>3</v>
@@ -4004,18 +4006,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C139" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D139" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E139">
         <v>-1</v>
@@ -4027,18 +4029,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C140" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D140" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E140">
         <v>-1</v>
@@ -4050,18 +4052,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C141" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D141" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -4073,18 +4075,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D142" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E142">
         <v>-2</v>
@@ -4096,18 +4098,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C143" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D143" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E143">
         <v>-2</v>
@@ -4119,18 +4121,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C144" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D144" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E144">
         <v>-2</v>
@@ -4142,18 +4144,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C145" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D145" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E145">
         <v>6</v>
@@ -4165,18 +4167,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D146" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E146">
         <v>2</v>
@@ -4188,18 +4190,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C147" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D147" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E147">
         <v>-2</v>
@@ -4211,18 +4213,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C148" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E148">
         <v>4</v>
@@ -4234,18 +4236,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C149" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D149" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E149">
         <v>4</v>
